--- a/模擬試験結果.xlsx
+++ b/模擬試験結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyam\OneDrive\デスクトップ\AWS_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CDAE23-985A-4372-964C-EB44C3EA6924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C5E910-CE6B-464A-8EEA-FED631DE2E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62C2D230-2EEC-4B1A-B14F-2DDF888CD5BB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{62C2D230-2EEC-4B1A-B14F-2DDF888CD5BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>模擬試験結果</t>
     <rPh sb="0" eb="6">
@@ -121,13 +121,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>模擬試験１</t>
-    <rPh sb="0" eb="4">
-      <t>モギシケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>模擬試験2</t>
     <rPh sb="0" eb="4">
       <t>モギシケン</t>
@@ -162,6 +155,55 @@
   </si>
   <si>
     <t>ECS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>模擬試験①</t>
+    <rPh sb="0" eb="4">
+      <t>モギシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>模擬試験②</t>
+    <rPh sb="0" eb="4">
+      <t>モギシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>模擬試験③</t>
+    <rPh sb="0" eb="4">
+      <t>モギシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>模擬試験1</t>
+    <rPh sb="0" eb="4">
+      <t>モギシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>模擬試験4</t>
+    <rPh sb="0" eb="4">
+      <t>モギシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>模擬試験5</t>
+    <rPh sb="0" eb="4">
+      <t>モギシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>模擬試験6</t>
+    <rPh sb="0" eb="4">
+      <t>モギシケン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -194,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -203,9 +245,224 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -216,208 +473,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -428,27 +487,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -462,29 +521,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,240 +862,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82634046-1814-4B66-939F-6468339B9280}">
-  <dimension ref="B1:E19"/>
+  <dimension ref="B1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="3" max="5" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="24.08203125" customWidth="1"/>
+    <col min="3" max="11" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="6"/>
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="4"/>
+      <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="I2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14">
+        <v>50</v>
+      </c>
+      <c r="D4" s="5">
+        <v>50</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="14">
+        <v>100</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15">
+        <v>42</v>
+      </c>
+      <c r="D5" s="7">
+        <v>78</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="15">
+        <v>77</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15">
+        <v>100</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="15">
+        <v>100</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15">
+        <v>83</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="15">
+        <v>100</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15">
+        <v>45</v>
+      </c>
+      <c r="D8" s="7">
+        <v>50</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="15">
+        <v>92</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="15">
+        <v>100</v>
+      </c>
+      <c r="D9" s="7">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="15">
+        <v>78</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="15">
+        <v>100</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="15">
+        <v>56</v>
+      </c>
+      <c r="D11" s="7">
+        <v>75</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="15">
+        <v>100</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="15">
+        <v>100</v>
+      </c>
+      <c r="D12" s="7">
         <v>50</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="15">
+        <v>100</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="15">
+        <v>100</v>
+      </c>
+      <c r="D13" s="7">
         <v>50</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="17">
-        <v>42</v>
-      </c>
-      <c r="D5" s="9">
-        <v>78</v>
-      </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="17">
-        <v>100</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="17">
-        <v>83</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="17">
-        <v>45</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="E13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="15">
         <v>50</v>
       </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="17">
-        <v>100</v>
-      </c>
-      <c r="D9" s="9">
-        <v>14</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="17">
-        <v>100</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="17">
-        <v>56</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="15">
+        <v>100</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="15">
         <v>75</v>
       </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="4" t="s">
+      <c r="D15" s="7">
+        <v>50</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="15">
+        <v>50</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="15">
+        <v>100</v>
+      </c>
+      <c r="D16" s="7">
+        <v>100</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="15">
+        <v>100</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="15">
+        <v>100</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="17">
-        <v>100</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="C18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7">
+        <v>100</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="9">
         <v>50</v>
       </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="17">
-        <v>100</v>
-      </c>
-      <c r="D13" s="9">
-        <v>50</v>
-      </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="17">
-        <v>100</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="17">
-        <v>75</v>
-      </c>
-      <c r="D15" s="9">
-        <v>50</v>
-      </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="17">
-        <v>100</v>
-      </c>
-      <c r="D16" s="9">
-        <v>100</v>
-      </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="17">
-        <v>100</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="9">
-        <v>100</v>
-      </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="11">
-        <v>50</v>
-      </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="16">
+        <v>100</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/模擬試験結果.xlsx
+++ b/模擬試験結果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyam\OneDrive\デスクトップ\AWS_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C5E910-CE6B-464A-8EEA-FED631DE2E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271C742F-B6D1-4C9D-9C64-EB08960A210A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{62C2D230-2EEC-4B1A-B14F-2DDF888CD5BB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>模擬試験結果</t>
     <rPh sb="0" eb="6">
@@ -865,7 +865,7 @@
   <dimension ref="B1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -941,7 +941,9 @@
       <c r="F4" s="14">
         <v>100</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5">
+        <v>67</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -963,7 +965,9 @@
       <c r="F5" s="15">
         <v>77</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="15">
+        <v>64</v>
+      </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -985,7 +989,9 @@
       <c r="F6" s="15">
         <v>100</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="15">
+        <v>50</v>
+      </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
@@ -1007,7 +1013,9 @@
       <c r="F7" s="15">
         <v>100</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="15">
+        <v>25</v>
+      </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -1029,7 +1037,9 @@
       <c r="F8" s="15">
         <v>92</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
@@ -1051,7 +1061,9 @@
       <c r="F9" s="15">
         <v>78</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="15">
+        <v>83</v>
+      </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -1073,7 +1085,9 @@
       <c r="F10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="15">
+        <v>100</v>
+      </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -1095,7 +1109,9 @@
       <c r="F11" s="15">
         <v>100</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="15">
+        <v>57</v>
+      </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -1117,7 +1133,9 @@
       <c r="F12" s="15">
         <v>100</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="15">
+        <v>100</v>
+      </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -1139,7 +1157,9 @@
       <c r="F13" s="15">
         <v>50</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="15">
+        <v>40</v>
+      </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -1161,7 +1181,9 @@
       <c r="F14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -1183,7 +1205,9 @@
       <c r="F15" s="15">
         <v>50</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="15">
+        <v>20</v>
+      </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -1205,7 +1229,9 @@
       <c r="F16" s="15">
         <v>100</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="15">
+        <v>50</v>
+      </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
@@ -1227,7 +1253,9 @@
       <c r="F17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
@@ -1249,7 +1277,9 @@
       <c r="F18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
@@ -1271,7 +1301,9 @@
       <c r="F19" s="16">
         <v>100</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>

--- a/模擬試験結果.xlsx
+++ b/模擬試験結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyam\OneDrive\デスクトップ\AWS_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271C742F-B6D1-4C9D-9C64-EB08960A210A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EFF135-7AEA-4420-B207-6E4CC6BE08C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{62C2D230-2EEC-4B1A-B14F-2DDF888CD5BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62C2D230-2EEC-4B1A-B14F-2DDF888CD5BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>模擬試験結果</t>
     <rPh sb="0" eb="6">
@@ -865,7 +865,7 @@
   <dimension ref="B1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -944,7 +944,9 @@
       <c r="G4" s="5">
         <v>67</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5">
+        <v>67</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="6"/>
@@ -968,7 +970,9 @@
       <c r="G5" s="15">
         <v>64</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="15">
+        <v>40</v>
+      </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="8"/>
@@ -992,7 +996,9 @@
       <c r="G6" s="15">
         <v>50</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="15">
+        <v>100</v>
+      </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="8"/>
@@ -1016,7 +1022,9 @@
       <c r="G7" s="15">
         <v>25</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="15">
+        <v>40</v>
+      </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="8"/>
@@ -1040,7 +1048,9 @@
       <c r="G8" s="15">
         <v>0</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15">
+        <v>43</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="8"/>
@@ -1064,7 +1074,9 @@
       <c r="G9" s="15">
         <v>83</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="15">
+        <v>50</v>
+      </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="8"/>
@@ -1088,7 +1100,9 @@
       <c r="G10" s="15">
         <v>100</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="15">
+        <v>100</v>
+      </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="8"/>
@@ -1112,7 +1126,9 @@
       <c r="G11" s="15">
         <v>57</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="15">
+        <v>50</v>
+      </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="8"/>
@@ -1136,7 +1152,9 @@
       <c r="G12" s="15">
         <v>100</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="15">
+        <v>60</v>
+      </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="8"/>
@@ -1160,7 +1178,9 @@
       <c r="G13" s="15">
         <v>40</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="15">
+        <v>50</v>
+      </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="8"/>
@@ -1184,7 +1204,9 @@
       <c r="G14" s="15">
         <v>0</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="15">
+        <v>50</v>
+      </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="8"/>
@@ -1208,7 +1230,9 @@
       <c r="G15" s="15">
         <v>20</v>
       </c>
-      <c r="H15" s="15"/>
+      <c r="H15" s="15">
+        <v>0</v>
+      </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="8"/>
@@ -1232,7 +1256,9 @@
       <c r="G16" s="15">
         <v>50</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="15">
+        <v>33</v>
+      </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="8"/>
@@ -1256,7 +1282,9 @@
       <c r="G17" s="15">
         <v>0</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="8"/>
@@ -1280,7 +1308,9 @@
       <c r="G18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="8"/>
@@ -1304,7 +1334,9 @@
       <c r="G19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="10"/>

--- a/模擬試験結果.xlsx
+++ b/模擬試験結果.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyam\OneDrive\デスクトップ\AWS_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EFF135-7AEA-4420-B207-6E4CC6BE08C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69A28DA-9302-4FF5-BCDF-4B3EDD3C3252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62C2D230-2EEC-4B1A-B14F-2DDF888CD5BB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>模擬試験結果</t>
     <rPh sb="0" eb="6">
@@ -865,21 +865,21 @@
   <dimension ref="B1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.08203125" customWidth="1"/>
-    <col min="3" max="11" width="10.58203125" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="11" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" s="4"/>
       <c r="C2" s="13" t="s">
         <v>22</v>
@@ -909,7 +909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -925,7 +925,7 @@
       <c r="J3" s="18"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -947,11 +947,13 @@
       <c r="H4" s="5">
         <v>67</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -973,11 +975,13 @@
       <c r="H5" s="15">
         <v>40</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="15">
+        <v>71</v>
+      </c>
       <c r="J5" s="15"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -999,11 +1003,13 @@
       <c r="H6" s="15">
         <v>100</v>
       </c>
-      <c r="I6" s="15"/>
+      <c r="I6" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="J6" s="15"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1025,11 +1031,13 @@
       <c r="H7" s="15">
         <v>40</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="15">
+        <v>50</v>
+      </c>
       <c r="J7" s="15"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1051,11 +1059,13 @@
       <c r="H8" s="15">
         <v>43</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="15">
+        <v>20</v>
+      </c>
       <c r="J8" s="15"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1077,11 +1087,13 @@
       <c r="H9" s="15">
         <v>50</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="15">
+        <v>54</v>
+      </c>
       <c r="J9" s="15"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1103,11 +1115,13 @@
       <c r="H10" s="15">
         <v>100</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="15">
+        <v>100</v>
+      </c>
       <c r="J10" s="15"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1129,11 +1143,13 @@
       <c r="H11" s="15">
         <v>50</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="15">
+        <v>57</v>
+      </c>
       <c r="J11" s="15"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1155,11 +1171,13 @@
       <c r="H12" s="15">
         <v>60</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="15">
+        <v>67</v>
+      </c>
       <c r="J12" s="15"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1181,11 +1199,13 @@
       <c r="H13" s="15">
         <v>50</v>
       </c>
-      <c r="I13" s="15"/>
+      <c r="I13" s="15">
+        <v>80</v>
+      </c>
       <c r="J13" s="15"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1207,11 +1227,13 @@
       <c r="H14" s="15">
         <v>50</v>
       </c>
-      <c r="I14" s="15"/>
+      <c r="I14" s="15">
+        <v>0</v>
+      </c>
       <c r="J14" s="15"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1233,11 +1255,13 @@
       <c r="H15" s="15">
         <v>0</v>
       </c>
-      <c r="I15" s="15"/>
+      <c r="I15" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="J15" s="15"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1259,11 +1283,13 @@
       <c r="H16" s="15">
         <v>33</v>
       </c>
-      <c r="I16" s="15"/>
+      <c r="I16" s="15">
+        <v>50</v>
+      </c>
       <c r="J16" s="15"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1285,11 +1311,13 @@
       <c r="H17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="15"/>
+      <c r="I17" s="15">
+        <v>100</v>
+      </c>
       <c r="J17" s="15"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1311,11 +1339,13 @@
       <c r="H18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="15"/>
+      <c r="I18" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="J18" s="15"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1337,7 +1367,9 @@
       <c r="H19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="J19" s="9"/>
       <c r="K19" s="10"/>
     </row>

--- a/模擬試験結果.xlsx
+++ b/模擬試験結果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyam\OneDrive\デスクトップ\AWS_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69A28DA-9302-4FF5-BCDF-4B3EDD3C3252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F860DDF-B042-48EE-B20F-12B045840C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62C2D230-2EEC-4B1A-B14F-2DDF888CD5BB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{62C2D230-2EEC-4B1A-B14F-2DDF888CD5BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
   <si>
     <t>模擬試験結果</t>
     <rPh sb="0" eb="6">
@@ -203,6 +203,13 @@
     <t>模擬試験6</t>
     <rPh sb="0" eb="4">
       <t>モギシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移行</t>
+    <rPh sb="0" eb="2">
+      <t>イコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -862,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82634046-1814-4B66-939F-6468339B9280}">
-  <dimension ref="B1:K19"/>
+  <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -950,7 +957,9 @@
       <c r="I4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
@@ -978,7 +987,9 @@
       <c r="I5" s="15">
         <v>71</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="15">
+        <v>63</v>
+      </c>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
@@ -1006,7 +1017,9 @@
       <c r="I6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
@@ -1034,7 +1047,9 @@
       <c r="I7" s="15">
         <v>50</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="15">
+        <v>100</v>
+      </c>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
@@ -1062,7 +1077,9 @@
       <c r="I8" s="15">
         <v>20</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
@@ -1090,7 +1107,9 @@
       <c r="I9" s="15">
         <v>54</v>
       </c>
-      <c r="J9" s="15"/>
+      <c r="J9" s="15">
+        <v>50</v>
+      </c>
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
@@ -1118,7 +1137,9 @@
       <c r="I10" s="15">
         <v>100</v>
       </c>
-      <c r="J10" s="15"/>
+      <c r="J10" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
@@ -1146,7 +1167,9 @@
       <c r="I11" s="15">
         <v>57</v>
       </c>
-      <c r="J11" s="15"/>
+      <c r="J11" s="15">
+        <v>50</v>
+      </c>
       <c r="K11" s="8"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
@@ -1174,7 +1197,9 @@
       <c r="I12" s="15">
         <v>67</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="J12" s="15">
+        <v>50</v>
+      </c>
       <c r="K12" s="8"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
@@ -1202,7 +1227,9 @@
       <c r="I13" s="15">
         <v>80</v>
       </c>
-      <c r="J13" s="15"/>
+      <c r="J13" s="15">
+        <v>75</v>
+      </c>
       <c r="K13" s="8"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
@@ -1230,7 +1257,9 @@
       <c r="I14" s="15">
         <v>0</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="J14" s="15">
+        <v>0</v>
+      </c>
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
@@ -1258,7 +1287,9 @@
       <c r="I15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="15">
+        <v>67</v>
+      </c>
       <c r="K15" s="8"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
@@ -1286,7 +1317,9 @@
       <c r="I16" s="15">
         <v>50</v>
       </c>
-      <c r="J16" s="15"/>
+      <c r="J16" s="15">
+        <v>60</v>
+      </c>
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
@@ -1314,7 +1347,9 @@
       <c r="I17" s="15">
         <v>100</v>
       </c>
-      <c r="J17" s="15"/>
+      <c r="J17" s="15">
+        <v>80</v>
+      </c>
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
@@ -1342,36 +1377,70 @@
       <c r="I18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="15"/>
+      <c r="J18" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="15">
+        <v>25</v>
+      </c>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="9">
-        <v>50</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="16">
-        <v>100</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
+      <c r="C20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="9">
+        <v>50</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="16">
+        <v>100</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/模擬試験結果.xlsx
+++ b/模擬試験結果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyam\OneDrive\デスクトップ\AWS_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F860DDF-B042-48EE-B20F-12B045840C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C407A860-4BEF-4404-B103-74364F4B3104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{62C2D230-2EEC-4B1A-B14F-2DDF888CD5BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62C2D230-2EEC-4B1A-B14F-2DDF888CD5BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>模擬試験結果</t>
     <rPh sb="0" eb="6">
@@ -872,7 +872,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -960,7 +960,9 @@
       <c r="J4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
@@ -990,7 +992,9 @@
       <c r="J5" s="15">
         <v>63</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="8">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
@@ -1020,7 +1024,9 @@
       <c r="J6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
@@ -1050,7 +1056,9 @@
       <c r="J7" s="15">
         <v>100</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="8">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
@@ -1080,7 +1088,9 @@
       <c r="J8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="8"/>
+      <c r="K8" s="8">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
@@ -1110,7 +1120,9 @@
       <c r="J9" s="15">
         <v>50</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="8">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
@@ -1140,7 +1152,9 @@
       <c r="J10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
@@ -1170,7 +1184,9 @@
       <c r="J11" s="15">
         <v>50</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="8">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
@@ -1200,7 +1216,9 @@
       <c r="J12" s="15">
         <v>50</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="8">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
@@ -1230,7 +1248,9 @@
       <c r="J13" s="15">
         <v>75</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="8">
+        <v>83</v>
+      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
@@ -1260,7 +1280,9 @@
       <c r="J14" s="15">
         <v>0</v>
       </c>
-      <c r="K14" s="8"/>
+      <c r="K14" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
@@ -1290,7 +1312,9 @@
       <c r="J15" s="15">
         <v>67</v>
       </c>
-      <c r="K15" s="8"/>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
@@ -1320,7 +1344,9 @@
       <c r="J16" s="15">
         <v>60</v>
       </c>
-      <c r="K16" s="8"/>
+      <c r="K16" s="8">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
@@ -1350,7 +1376,9 @@
       <c r="J17" s="15">
         <v>80</v>
       </c>
-      <c r="K17" s="8"/>
+      <c r="K17" s="8">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
@@ -1380,7 +1408,9 @@
       <c r="J18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="8"/>
+      <c r="K18" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
@@ -1410,7 +1440,9 @@
       <c r="J19" s="15">
         <v>25</v>
       </c>
-      <c r="K19" s="8"/>
+      <c r="K19" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
@@ -1440,7 +1472,9 @@
       <c r="J20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="10"/>
+      <c r="K20" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/模擬試験結果.xlsx
+++ b/模擬試験結果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyam\OneDrive\デスクトップ\AWS_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C407A860-4BEF-4404-B103-74364F4B3104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B81BCE8-F668-49A6-96EE-0C4A2A2787C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62C2D230-2EEC-4B1A-B14F-2DDF888CD5BB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
   <si>
     <t>模擬試験結果</t>
     <rPh sb="0" eb="6">
@@ -211,6 +211,46 @@
     <rPh sb="0" eb="2">
       <t>イコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50/100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>42/75</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100/100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>83/100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>45/82</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100/60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>56/78</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100/83</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>75/100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -872,7 +912,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -936,8 +976,8 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14">
-        <v>50</v>
+      <c r="C4" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="D4" s="5">
         <v>50</v>
@@ -968,8 +1008,8 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15">
-        <v>42</v>
+      <c r="C5" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D5" s="7">
         <v>78</v>
@@ -1000,8 +1040,8 @@
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="15">
-        <v>100</v>
+      <c r="C6" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>18</v>
@@ -1032,8 +1072,8 @@
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15">
-        <v>83</v>
+      <c r="C7" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>18</v>
@@ -1064,8 +1104,8 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="15">
-        <v>45</v>
+      <c r="C8" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="7">
         <v>50</v>
@@ -1096,8 +1136,8 @@
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="15">
-        <v>100</v>
+      <c r="C9" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="D9" s="7">
         <v>14</v>
@@ -1128,8 +1168,8 @@
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="15">
-        <v>100</v>
+      <c r="C10" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>18</v>
@@ -1160,8 +1200,8 @@
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="15">
-        <v>56</v>
+      <c r="C11" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="D11" s="7">
         <v>75</v>
@@ -1192,8 +1232,8 @@
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="15">
-        <v>100</v>
+      <c r="C12" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="D12" s="7">
         <v>50</v>
@@ -1224,8 +1264,8 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="15">
-        <v>100</v>
+      <c r="C13" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="D13" s="7">
         <v>50</v>
@@ -1256,8 +1296,8 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="15">
-        <v>100</v>
+      <c r="C14" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
@@ -1288,8 +1328,8 @@
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="15">
-        <v>75</v>
+      <c r="C15" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="D15" s="7">
         <v>50</v>
@@ -1320,8 +1360,8 @@
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="15">
-        <v>100</v>
+      <c r="C16" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="7">
         <v>100</v>
@@ -1352,8 +1392,8 @@
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="15">
-        <v>100</v>
+      <c r="C17" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>18</v>
@@ -1385,7 +1425,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D18" s="7">
         <v>100</v>

--- a/模擬試験結果.xlsx
+++ b/模擬試験結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyam\OneDrive\デスクトップ\AWS_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B81BCE8-F668-49A6-96EE-0C4A2A2787C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0502B15F-BB50-4099-9B3A-33A2861CEAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62C2D230-2EEC-4B1A-B14F-2DDF888CD5BB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{62C2D230-2EEC-4B1A-B14F-2DDF888CD5BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
   <si>
     <t>模擬試験結果</t>
     <rPh sb="0" eb="6">
@@ -251,6 +251,30 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50/78</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>78/78</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50/92</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14/100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>75/75</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/100</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -912,21 +936,21 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="3" max="11" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="24.08203125" customWidth="1"/>
+    <col min="3" max="11" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4"/>
       <c r="C2" s="13" t="s">
         <v>22</v>
@@ -956,7 +980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -972,15 +996,15 @@
       <c r="J3" s="18"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="2:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="5">
-        <v>50</v>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>18</v>
@@ -1004,15 +1028,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="7">
-        <v>78</v>
+      <c r="D5" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>18</v>
@@ -1036,7 +1060,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1100,15 +1124,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="7">
-        <v>50</v>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>18</v>
@@ -1132,15 +1156,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="7">
-        <v>14</v>
+      <c r="D9" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>18</v>
@@ -1164,7 +1188,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1196,15 +1220,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="7">
-        <v>75</v>
+      <c r="D11" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>18</v>
@@ -1228,15 +1252,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="7">
-        <v>50</v>
+      <c r="D12" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>18</v>
@@ -1260,15 +1284,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="7">
-        <v>50</v>
+      <c r="D13" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>18</v>
@@ -1292,15 +1316,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
+      <c r="D14" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>18</v>
@@ -1324,15 +1348,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="7">
-        <v>50</v>
+      <c r="D15" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>18</v>
@@ -1356,15 +1380,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="7">
-        <v>100</v>
+      <c r="D16" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>18</v>
@@ -1388,7 +1412,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1420,15 +1444,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="7">
-        <v>100</v>
+      <c r="D18" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>18</v>
@@ -1452,7 +1476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1484,15 +1508,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="9">
-        <v>50</v>
+      <c r="D20" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>18</v>

--- a/模擬試験結果.xlsx
+++ b/模擬試験結果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyam\OneDrive\デスクトップ\AWS_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0502B15F-BB50-4099-9B3A-33A2861CEAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A33B58-8E71-4303-8C4E-3D0503A2E1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{62C2D230-2EEC-4B1A-B14F-2DDF888CD5BB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
   <si>
     <t>模擬試験結果</t>
     <rPh sb="0" eb="6">
@@ -275,6 +275,22 @@
   </si>
   <si>
     <t>0/100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>77/92</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>78/89</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100/67</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>92/100</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -936,7 +952,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1009,8 +1025,8 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="14">
-        <v>100</v>
+      <c r="F4" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="G4" s="5">
         <v>67</v>
@@ -1041,8 +1057,8 @@
       <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="15">
-        <v>77</v>
+      <c r="F5" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="G5" s="15">
         <v>64</v>
@@ -1073,8 +1089,8 @@
       <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="15">
-        <v>100</v>
+      <c r="F6" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="G6" s="15">
         <v>50</v>
@@ -1105,8 +1121,8 @@
       <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="15">
-        <v>100</v>
+      <c r="F7" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="G7" s="15">
         <v>25</v>
@@ -1137,8 +1153,8 @@
       <c r="E8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="15">
-        <v>92</v>
+      <c r="F8" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
@@ -1169,8 +1185,8 @@
       <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="15">
-        <v>78</v>
+      <c r="F9" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="G9" s="15">
         <v>83</v>
@@ -1233,8 +1249,8 @@
       <c r="E11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="15">
-        <v>100</v>
+      <c r="F11" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="G11" s="15">
         <v>57</v>
@@ -1265,8 +1281,8 @@
       <c r="E12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="15">
-        <v>100</v>
+      <c r="F12" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="G12" s="15">
         <v>100</v>
@@ -1297,8 +1313,8 @@
       <c r="E13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="15">
-        <v>50</v>
+      <c r="F13" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="G13" s="15">
         <v>40</v>
@@ -1361,8 +1377,8 @@
       <c r="E15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="15">
-        <v>50</v>
+      <c r="F15" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="G15" s="15">
         <v>20</v>
@@ -1393,8 +1409,8 @@
       <c r="E16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="15">
-        <v>100</v>
+      <c r="F16" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="G16" s="15">
         <v>50</v>
@@ -1521,8 +1537,8 @@
       <c r="E20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="16">
-        <v>100</v>
+      <c r="F20" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>18</v>

--- a/模擬試験結果.xlsx
+++ b/模擬試験結果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyam\OneDrive\デスクトップ\AWS_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A33B58-8E71-4303-8C4E-3D0503A2E1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B4805C-4AB4-4544-A363-34DE0733F0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{62C2D230-2EEC-4B1A-B14F-2DDF888CD5BB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="59">
   <si>
     <t>模擬試験結果</t>
     <rPh sb="0" eb="6">
@@ -291,6 +291,42 @@
   </si>
   <si>
     <t>92/100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40/40</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>64/82</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>67/33</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/75</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25/100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>57/100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20/100</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -952,7 +988,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1028,8 +1064,8 @@
       <c r="F4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="5">
-        <v>67</v>
+      <c r="G4" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="H4" s="5">
         <v>67</v>
@@ -1060,8 +1096,8 @@
       <c r="F5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="15">
-        <v>64</v>
+      <c r="G5" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="H5" s="15">
         <v>40</v>
@@ -1092,8 +1128,8 @@
       <c r="F6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="15">
-        <v>50</v>
+      <c r="G6" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="H6" s="15">
         <v>100</v>
@@ -1124,8 +1160,8 @@
       <c r="F7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="15">
-        <v>25</v>
+      <c r="G7" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="H7" s="15">
         <v>40</v>
@@ -1156,8 +1192,8 @@
       <c r="F8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="15">
-        <v>0</v>
+      <c r="G8" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="H8" s="15">
         <v>43</v>
@@ -1188,8 +1224,8 @@
       <c r="F9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="15">
-        <v>83</v>
+      <c r="G9" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="H9" s="15">
         <v>50</v>
@@ -1220,8 +1256,8 @@
       <c r="F10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="15">
-        <v>100</v>
+      <c r="G10" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="H10" s="15">
         <v>100</v>
@@ -1252,7 +1288,7 @@
       <c r="F11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="15" t="s">
         <v>57</v>
       </c>
       <c r="H11" s="15">
@@ -1284,8 +1320,8 @@
       <c r="F12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="15">
-        <v>100</v>
+      <c r="G12" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="H12" s="15">
         <v>60</v>
@@ -1316,8 +1352,8 @@
       <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="15">
-        <v>40</v>
+      <c r="G13" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="H13" s="15">
         <v>50</v>
@@ -1348,8 +1384,8 @@
       <c r="F14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="15">
-        <v>0</v>
+      <c r="G14" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="H14" s="15">
         <v>50</v>
@@ -1380,8 +1416,8 @@
       <c r="F15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="15">
-        <v>20</v>
+      <c r="G15" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="H15" s="15">
         <v>0</v>
@@ -1412,8 +1448,8 @@
       <c r="F16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="15">
-        <v>50</v>
+      <c r="G16" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="H16" s="15">
         <v>33</v>
@@ -1444,8 +1480,8 @@
       <c r="F17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="15">
-        <v>0</v>
+      <c r="G17" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>18</v>

--- a/模擬試験結果.xlsx
+++ b/模擬試験結果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyam\OneDrive\デスクトップ\AWS_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B4805C-4AB4-4544-A363-34DE0733F0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C17735-F1A8-42A6-B848-34ECB357F444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{62C2D230-2EEC-4B1A-B14F-2DDF888CD5BB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="70">
   <si>
     <t>模擬試験結果</t>
     <rPh sb="0" eb="6">
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Auto Scaling</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EC2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -327,6 +323,54 @@
   </si>
   <si>
     <t>20/100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50/83</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50/90</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40/100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50/0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>67/83</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>43/86</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ELB/Auto Scaling</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>33/33</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40/80</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/67</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60/100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50/75</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -987,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82634046-1814-4B66-939F-6468339B9280}">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1005,39 +1049,39 @@
     <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4"/>
       <c r="C2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -1053,31 +1097,31 @@
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="5">
-        <v>67</v>
+        <v>52</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -1085,22 +1129,22 @@
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="15">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="I5" s="15">
         <v>71</v>
@@ -1117,28 +1161,28 @@
         <v>3</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="15">
-        <v>100</v>
+        <v>29</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" s="8">
         <v>0</v>
@@ -1149,22 +1193,22 @@
         <v>4</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="15">
-        <v>40</v>
+        <v>55</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="I7" s="15">
         <v>50</v>
@@ -1181,28 +1225,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="15">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="I8" s="15">
         <v>20</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" s="8">
         <v>50</v>
@@ -1213,22 +1257,22 @@
         <v>6</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="15">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="I9" s="15">
         <v>54</v>
@@ -1242,57 +1286,57 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="15">
-        <v>100</v>
+        <v>31</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="I10" s="15">
         <v>100</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="15">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="I11" s="15">
         <v>57</v>
@@ -1306,25 +1350,25 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="15">
-        <v>60</v>
+        <v>31</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="I12" s="15">
         <v>67</v>
@@ -1338,25 +1382,25 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="15">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="I13" s="15">
         <v>80</v>
@@ -1370,25 +1414,25 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="15">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="I14" s="15">
         <v>0</v>
@@ -1397,33 +1441,33 @@
         <v>0</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J15" s="15">
         <v>67</v>
@@ -1434,25 +1478,25 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="15">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="I16" s="15">
         <v>50</v>
@@ -1466,25 +1510,25 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" s="15">
         <v>100</v>
@@ -1498,98 +1542,98 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J19" s="15">
         <v>25</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/模擬試験結果.xlsx
+++ b/模擬試験結果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyam\OneDrive\デスクトップ\AWS_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C17735-F1A8-42A6-B848-34ECB357F444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA56F75-8F9E-4474-98CB-5E48B297E0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{62C2D230-2EEC-4B1A-B14F-2DDF888CD5BB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
   <si>
     <t>模擬試験結果</t>
     <rPh sb="0" eb="6">
@@ -371,6 +371,38 @@
   </si>
   <si>
     <t>50/75</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>57/86</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>54/85</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>71/93</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>67/89</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80/80</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50/50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20/80</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>67/0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1032,7 +1064,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1115,7 +1147,7 @@
         <v>62</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>17</v>
@@ -1146,8 +1178,8 @@
       <c r="H5" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="15">
-        <v>71</v>
+      <c r="I5" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="J5" s="15">
         <v>63</v>
@@ -1210,8 +1242,8 @@
       <c r="H7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="15">
-        <v>50</v>
+      <c r="I7" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="J7" s="15">
         <v>100</v>
@@ -1242,8 +1274,8 @@
       <c r="H8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="15">
-        <v>20</v>
+      <c r="I8" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>17</v>
@@ -1274,8 +1306,8 @@
       <c r="H9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="15">
-        <v>54</v>
+      <c r="I9" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="J9" s="15">
         <v>50</v>
@@ -1306,8 +1338,8 @@
       <c r="H10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="15">
-        <v>100</v>
+      <c r="I10" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>17</v>
@@ -1338,8 +1370,8 @@
       <c r="H11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="15">
-        <v>57</v>
+      <c r="I11" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="J11" s="15">
         <v>50</v>
@@ -1370,8 +1402,8 @@
       <c r="H12" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="15">
-        <v>67</v>
+      <c r="I12" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="J12" s="15">
         <v>50</v>
@@ -1402,8 +1434,8 @@
       <c r="H13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="15">
-        <v>80</v>
+      <c r="I13" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="J13" s="15">
         <v>75</v>
@@ -1434,8 +1466,8 @@
       <c r="H14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="15">
-        <v>0</v>
+      <c r="I14" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="J14" s="15">
         <v>0</v>
@@ -1467,7 +1499,7 @@
         <v>67</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="J15" s="15">
         <v>67</v>
@@ -1498,8 +1530,8 @@
       <c r="H16" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="15">
-        <v>50</v>
+      <c r="I16" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="J16" s="15">
         <v>60</v>
@@ -1530,8 +1562,8 @@
       <c r="H17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="15">
-        <v>100</v>
+      <c r="I17" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="J17" s="15">
         <v>80</v>

--- a/模擬試験結果.xlsx
+++ b/模擬試験結果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyam\OneDrive\デスクトップ\AWS_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA56F75-8F9E-4474-98CB-5E48B297E0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A911177-76C2-4FC0-A27B-D8B86764647E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{62C2D230-2EEC-4B1A-B14F-2DDF888CD5BB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
   <si>
     <t>模擬試験結果</t>
     <rPh sb="0" eb="6">
@@ -403,6 +403,26 @@
   </si>
   <si>
     <t>67/0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80/100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>75/50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25/50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>67/67</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>63/86</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1064,7 +1084,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1181,8 +1201,8 @@
       <c r="I5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="15">
-        <v>63</v>
+      <c r="J5" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="K5" s="8">
         <v>68</v>
@@ -1245,8 +1265,8 @@
       <c r="I7" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="15">
-        <v>100</v>
+      <c r="J7" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="K7" s="8">
         <v>100</v>
@@ -1309,8 +1329,8 @@
       <c r="I9" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="15">
-        <v>50</v>
+      <c r="J9" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="K9" s="8">
         <v>50</v>
@@ -1373,8 +1393,8 @@
       <c r="I11" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="15">
-        <v>50</v>
+      <c r="J11" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="K11" s="8">
         <v>75</v>
@@ -1405,8 +1425,8 @@
       <c r="I12" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J12" s="15">
-        <v>50</v>
+      <c r="J12" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="K12" s="8">
         <v>67</v>
@@ -1437,8 +1457,8 @@
       <c r="I13" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="15">
-        <v>75</v>
+      <c r="J13" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="K13" s="8">
         <v>83</v>
@@ -1469,8 +1489,8 @@
       <c r="I14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="15">
-        <v>0</v>
+      <c r="J14" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>17</v>
@@ -1501,8 +1521,8 @@
       <c r="I15" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="J15" s="15">
-        <v>67</v>
+      <c r="J15" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="K15" s="8">
         <v>0</v>
@@ -1533,8 +1553,8 @@
       <c r="I16" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="J16" s="15">
-        <v>60</v>
+      <c r="J16" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="K16" s="8">
         <v>100</v>
@@ -1565,8 +1585,8 @@
       <c r="I17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="15">
-        <v>80</v>
+      <c r="J17" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="K17" s="8">
         <v>50</v>
@@ -1629,8 +1649,8 @@
       <c r="I19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="15">
-        <v>25</v>
+      <c r="J19" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>17</v>

--- a/模擬試験結果.xlsx
+++ b/模擬試験結果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyam\OneDrive\デスクトップ\AWS_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A911177-76C2-4FC0-A27B-D8B86764647E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690F0DC2-E4C7-4A39-9718-3373B46DE7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{62C2D230-2EEC-4B1A-B14F-2DDF888CD5BB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="86">
   <si>
     <t>模擬試験結果</t>
     <rPh sb="0" eb="6">
@@ -423,6 +423,18 @@
   </si>
   <si>
     <t>63/86</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>75/92</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>68/95</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>67/100</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1084,7 +1096,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1204,8 +1216,8 @@
       <c r="J5" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="8">
-        <v>68</v>
+      <c r="K5" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -1236,8 +1248,8 @@
       <c r="J6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="8">
-        <v>0</v>
+      <c r="K6" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -1268,8 +1280,8 @@
       <c r="J7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="8">
-        <v>100</v>
+      <c r="K7" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -1300,8 +1312,8 @@
       <c r="J8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="8">
-        <v>50</v>
+      <c r="K8" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -1332,8 +1344,8 @@
       <c r="J9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="8">
-        <v>50</v>
+      <c r="K9" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -1396,8 +1408,8 @@
       <c r="J11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="8">
-        <v>75</v>
+      <c r="K11" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -1428,8 +1440,8 @@
       <c r="J12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="8">
-        <v>67</v>
+      <c r="K12" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -1460,8 +1472,8 @@
       <c r="J13" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="8">
-        <v>83</v>
+      <c r="K13" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -1524,8 +1536,8 @@
       <c r="J15" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="8">
-        <v>0</v>
+      <c r="K15" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -1556,8 +1568,8 @@
       <c r="J16" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="8">
-        <v>100</v>
+      <c r="K16" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.55000000000000004">
@@ -1588,8 +1600,8 @@
       <c r="J17" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="K17" s="8">
-        <v>50</v>
+      <c r="K17" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.55000000000000004">
